--- a/Data/Optimised_Networks/Predictions/1_10_50_0.0008_15 predictions_manual.xlsx
+++ b/Data/Optimised_Networks/Predictions/1_10_50_0.0008_15 predictions_manual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\Data\Optimised_Networks\Predictions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A8B34E-0C0A-4ED7-BFCA-35D6F8EE6EFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC45EE84-F1B9-4B9F-89ED-DDB0300D7B0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="3525" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -405,40 +405,40 @@
                   <c:v>7.6700000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.29552758353886271</c:v>
+                  <c:v>0.30072295815588568</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.52003034110878266</c:v>
+                  <c:v>0.52905942572381282</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.74293976269384321</c:v>
+                  <c:v>0.75499894846666049</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.94929604641230814</c:v>
+                  <c:v>0.97299469511487713</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1242228741639491</c:v>
+                  <c:v>1.16787178462885</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.281340832062287</c:v>
+                  <c:v>1.340311678544176</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.439205284432699</c:v>
+                  <c:v>1.4817978307773301</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.606226980252021</c:v>
+                  <c:v>1.630132131276844</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7677937989345061</c:v>
+                  <c:v>1.7750477012247401</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.909717195537225</c:v>
+                  <c:v>1.8983487935265351</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.048465788342317</c:v>
+                  <c:v>2.012197670868948</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.183879047253686</c:v>
+                  <c:v>2.1206730735697361</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -874,40 +874,40 @@
                   <c:v>764.27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>667.81498834889453</c:v>
+                  <c:v>750.6189510032932</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>451.28309403516101</c:v>
+                  <c:v>554.93142399517887</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200.88317395009111</c:v>
+                  <c:v>228.35398120083121</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95.97331551149864</c:v>
+                  <c:v>12.48819757550655</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>495.3489935818443</c:v>
+                  <c:v>379.51819103905609</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1400.0143811106491</c:v>
+                  <c:v>1345.326235817003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3024.0606196314761</c:v>
+                  <c:v>3007.32585819627</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4982.0195772711249</c:v>
+                  <c:v>4876.0068142500841</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6770.254923903889</c:v>
+                  <c:v>6594.3063084755686</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8177.0353017772431</c:v>
+                  <c:v>8013.828574605046</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9370.8649230489045</c:v>
+                  <c:v>9301.4181033687346</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10489.47100617943</c:v>
+                  <c:v>10584.303609855229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1343,40 +1343,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42560357684503752</c:v>
+                  <c:v>0.41593800957878302</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.80168979066525448</c:v>
+                  <c:v>0.78145419160169938</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1266708898727711</c:v>
+                  <c:v>1.1065282027150971</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4118172809252401</c:v>
+                  <c:v>1.407712689702656</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7040967075450479</c:v>
+                  <c:v>1.7167847648550141</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0020932865630061</c:v>
+                  <c:v>2.012572174137548</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.270248707441366</c:v>
+                  <c:v>2.2822321104371048</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.4764907013260031</c:v>
+                  <c:v>2.5440381996111161</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.6598806925358018</c:v>
+                  <c:v>2.7799397299474999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.8159683527377939</c:v>
+                  <c:v>2.956236101822395</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.95306312612338</c:v>
+                  <c:v>3.1113522805946059</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.0861323578351438</c:v>
+                  <c:v>3.269799270561486</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1843,40 +1843,40 @@
                   <c:v>7.6999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19502359883985931</c:v>
+                  <c:v>0.20520030471897599</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32299193210054888</c:v>
+                  <c:v>0.3432215702467285</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45696278216498543</c:v>
+                  <c:v>0.48716530533921049</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.60065022863091255</c:v>
+                  <c:v>0.64029980711058343</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.74488170397403541</c:v>
+                  <c:v>0.79522049782312298</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.90415690059846365</c:v>
+                  <c:v>0.9618823924839256</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0721847773372979</c:v>
+                  <c:v>1.136702426047534</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.235712312917443</c:v>
+                  <c:v>1.3063954867102761</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3922476655390841</c:v>
+                  <c:v>1.463229992775785</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.543374577909312</c:v>
+                  <c:v>1.60559330553885</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.682703443014369</c:v>
+                  <c:v>1.723429036829113</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.810230137003267</c:v>
+                  <c:v>1.8213406434407731</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2238,40 +2238,40 @@
                   <c:v>783.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>756.5701164</c:v>
+                  <c:v>736.095498</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>642.6445888</c:v>
+                  <c:v>616.7255443</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>498.0706737</c:v>
+                  <c:v>458.8611736</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>393.7657223</c:v>
+                  <c:v>302.1894982</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>480.8796868</c:v>
+                  <c:v>306.2112446</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>641.3754069</c:v>
+                  <c:v>465.3315408</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>772.3051395</c:v>
+                  <c:v>714.2135544</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>882.4474884</c:v>
+                  <c:v>964.9893271</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>996.6814898</c:v>
+                  <c:v>1159.549773</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1138.183304</c:v>
+                  <c:v>1298.562673</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1351.014419</c:v>
+                  <c:v>1455.412976</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1634.754445</c:v>
+                  <c:v>1687.55081</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2356,40 +2356,40 @@
                   <c:v>783.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>756.57011636513039</c:v>
+                  <c:v>736.09549795191015</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>642.64458876047138</c:v>
+                  <c:v>616.72554427171917</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>498.07067369578641</c:v>
+                  <c:v>458.86117359752387</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>393.76572234702229</c:v>
+                  <c:v>302.18949821565371</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>480.87968676044852</c:v>
+                  <c:v>306.21124461556929</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>641.37540685176668</c:v>
+                  <c:v>465.33154078989469</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>772.30513954864682</c:v>
+                  <c:v>714.2135544082571</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>882.44748842280887</c:v>
+                  <c:v>964.98932705586117</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>996.68148979390185</c:v>
+                  <c:v>1159.5497732256019</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1138.1833036988221</c:v>
+                  <c:v>1298.562672578191</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1351.0144188288821</c:v>
+                  <c:v>1455.412975681357</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1634.7544449035299</c:v>
+                  <c:v>1687.5508100922359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2825,40 +2825,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25897240009258282</c:v>
+                  <c:v>0.2462536409178564</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.51022188565862692</c:v>
+                  <c:v>0.4974172853105101</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.76251259860783194</c:v>
+                  <c:v>0.757326557458053</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.030593714771076</c:v>
+                  <c:v>1.037777175825386</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.340882762223359</c:v>
+                  <c:v>1.35539423119223</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6580894670098909</c:v>
+                  <c:v>1.6953910852503009</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.949164357135601</c:v>
+                  <c:v>2.036635737520998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1990673953659878</c:v>
+                  <c:v>2.3542429310767359</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.386309617773636</c:v>
+                  <c:v>2.614511818197776</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.504431414036933</c:v>
+                  <c:v>2.8023713806769912</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.5532292990188838</c:v>
+                  <c:v>2.9057147257959408</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.5695986029495712</c:v>
+                  <c:v>2.9669640776572961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6938,8 +6938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R19" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AG35" sqref="AG35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7016,13 +7016,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.29552758353886271</v>
+        <v>0.30072295815588568</v>
       </c>
       <c r="C3">
-        <v>667.81498834889453</v>
+        <v>750.6189510032932</v>
       </c>
       <c r="D3">
-        <v>0.42560357684503752</v>
+        <v>0.41593800957878302</v>
       </c>
       <c r="I3" s="2">
         <v>12</v>
@@ -7048,13 +7048,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.52003034110878266</v>
+        <v>0.52905942572381282</v>
       </c>
       <c r="C4">
-        <v>451.28309403516101</v>
+        <v>554.93142399517887</v>
       </c>
       <c r="D4">
-        <v>0.80168979066525448</v>
+        <v>0.78145419160169938</v>
       </c>
       <c r="I4" s="2">
         <v>24</v>
@@ -7080,13 +7080,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.74293976269384321</v>
+        <v>0.75499894846666049</v>
       </c>
       <c r="C5">
-        <v>200.88317395009111</v>
+        <v>228.35398120083121</v>
       </c>
       <c r="D5">
-        <v>1.1266708898727711</v>
+        <v>1.1065282027150971</v>
       </c>
       <c r="I5" s="2">
         <v>36</v>
@@ -7112,13 +7112,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.94929604641230814</v>
+        <v>0.97299469511487713</v>
       </c>
       <c r="C6">
-        <v>95.97331551149864</v>
+        <v>12.48819757550655</v>
       </c>
       <c r="D6">
-        <v>1.4118172809252401</v>
+        <v>1.407712689702656</v>
       </c>
       <c r="I6" s="2">
         <v>48</v>
@@ -7144,13 +7144,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.1242228741639491</v>
+        <v>1.16787178462885</v>
       </c>
       <c r="C7">
-        <v>495.3489935818443</v>
+        <v>379.51819103905609</v>
       </c>
       <c r="D7">
-        <v>1.7040967075450479</v>
+        <v>1.7167847648550141</v>
       </c>
       <c r="I7" s="2">
         <v>60</v>
@@ -7176,13 +7176,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.281340832062287</v>
+        <v>1.340311678544176</v>
       </c>
       <c r="C8">
-        <v>1400.0143811106491</v>
+        <v>1345.326235817003</v>
       </c>
       <c r="D8">
-        <v>2.0020932865630061</v>
+        <v>2.012572174137548</v>
       </c>
       <c r="I8" s="2">
         <v>72</v>
@@ -7208,13 +7208,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.439205284432699</v>
+        <v>1.4817978307773301</v>
       </c>
       <c r="C9">
-        <v>3024.0606196314761</v>
+        <v>3007.32585819627</v>
       </c>
       <c r="D9">
-        <v>2.270248707441366</v>
+        <v>2.2822321104371048</v>
       </c>
       <c r="I9" s="2">
         <v>84</v>
@@ -7240,13 +7240,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.606226980252021</v>
+        <v>1.630132131276844</v>
       </c>
       <c r="C10">
-        <v>4982.0195772711249</v>
+        <v>4876.0068142500841</v>
       </c>
       <c r="D10">
-        <v>2.4764907013260031</v>
+        <v>2.5440381996111161</v>
       </c>
       <c r="I10" s="2">
         <v>96</v>
@@ -7272,13 +7272,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.7677937989345061</v>
+        <v>1.7750477012247401</v>
       </c>
       <c r="C11">
-        <v>6770.254923903889</v>
+        <v>6594.3063084755686</v>
       </c>
       <c r="D11">
-        <v>2.6598806925358018</v>
+        <v>2.7799397299474999</v>
       </c>
       <c r="I11" s="2">
         <v>108</v>
@@ -7304,13 +7304,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.909717195537225</v>
+        <v>1.8983487935265351</v>
       </c>
       <c r="C12">
-        <v>8177.0353017772431</v>
+        <v>8013.828574605046</v>
       </c>
       <c r="D12">
-        <v>2.8159683527377939</v>
+        <v>2.956236101822395</v>
       </c>
       <c r="I12" s="2">
         <v>120</v>
@@ -7336,13 +7336,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.048465788342317</v>
+        <v>2.012197670868948</v>
       </c>
       <c r="C13">
-        <v>9370.8649230489045</v>
+        <v>9301.4181033687346</v>
       </c>
       <c r="D13">
-        <v>2.95306312612338</v>
+        <v>3.1113522805946059</v>
       </c>
       <c r="I13" s="2">
         <v>132</v>
@@ -7368,13 +7368,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.183879047253686</v>
+        <v>2.1206730735697361</v>
       </c>
       <c r="C14">
-        <v>10489.47100617943</v>
+        <v>10584.303609855229</v>
       </c>
       <c r="D14">
-        <v>3.0861323578351438</v>
+        <v>3.269799270561486</v>
       </c>
       <c r="I14" s="2">
         <v>144</v>
@@ -7435,13 +7435,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.19502359883985931</v>
+        <v>0.20520030471897599</v>
       </c>
       <c r="C16">
-        <v>756.57011636513039</v>
+        <v>736.09549795191015</v>
       </c>
       <c r="D16">
-        <v>0.25897240009258282</v>
+        <v>0.2462536409178564</v>
       </c>
       <c r="I16" s="2">
         <v>12</v>
@@ -7467,13 +7467,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.32299193210054888</v>
+        <v>0.3432215702467285</v>
       </c>
       <c r="C17">
-        <v>642.64458876047138</v>
+        <v>616.72554427171917</v>
       </c>
       <c r="D17">
-        <v>0.51022188565862692</v>
+        <v>0.4974172853105101</v>
       </c>
       <c r="I17" s="2">
         <v>24</v>
@@ -7499,13 +7499,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.45696278216498543</v>
+        <v>0.48716530533921049</v>
       </c>
       <c r="C18">
-        <v>498.07067369578641</v>
+        <v>458.86117359752387</v>
       </c>
       <c r="D18">
-        <v>0.76251259860783194</v>
+        <v>0.757326557458053</v>
       </c>
       <c r="I18" s="2">
         <v>36</v>
@@ -7531,13 +7531,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.60065022863091255</v>
+        <v>0.64029980711058343</v>
       </c>
       <c r="C19">
-        <v>393.76572234702229</v>
+        <v>302.18949821565371</v>
       </c>
       <c r="D19">
-        <v>1.030593714771076</v>
+        <v>1.037777175825386</v>
       </c>
       <c r="I19" s="2">
         <v>48</v>
@@ -7563,13 +7563,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.74488170397403541</v>
+        <v>0.79522049782312298</v>
       </c>
       <c r="C20">
-        <v>480.87968676044852</v>
+        <v>306.21124461556929</v>
       </c>
       <c r="D20">
-        <v>1.340882762223359</v>
+        <v>1.35539423119223</v>
       </c>
       <c r="I20" s="2">
         <v>60</v>
@@ -7595,13 +7595,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.90415690059846365</v>
+        <v>0.9618823924839256</v>
       </c>
       <c r="C21">
-        <v>641.37540685176668</v>
+        <v>465.33154078989469</v>
       </c>
       <c r="D21">
-        <v>1.6580894670098909</v>
+        <v>1.6953910852503009</v>
       </c>
       <c r="I21" s="2">
         <v>72</v>
@@ -7627,13 +7627,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.0721847773372979</v>
+        <v>1.136702426047534</v>
       </c>
       <c r="C22">
-        <v>772.30513954864682</v>
+        <v>714.2135544082571</v>
       </c>
       <c r="D22">
-        <v>1.949164357135601</v>
+        <v>2.036635737520998</v>
       </c>
       <c r="I22" s="2">
         <v>84</v>
@@ -7659,13 +7659,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.235712312917443</v>
+        <v>1.3063954867102761</v>
       </c>
       <c r="C23">
-        <v>882.44748842280887</v>
+        <v>964.98932705586117</v>
       </c>
       <c r="D23">
-        <v>2.1990673953659878</v>
+        <v>2.3542429310767359</v>
       </c>
       <c r="I23" s="2">
         <v>96</v>
@@ -7691,13 +7691,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.3922476655390841</v>
+        <v>1.463229992775785</v>
       </c>
       <c r="C24">
-        <v>996.68148979390185</v>
+        <v>1159.5497732256019</v>
       </c>
       <c r="D24">
-        <v>2.386309617773636</v>
+        <v>2.614511818197776</v>
       </c>
       <c r="I24" s="2">
         <v>108</v>
@@ -7723,13 +7723,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.543374577909312</v>
+        <v>1.60559330553885</v>
       </c>
       <c r="C25">
-        <v>1138.1833036988221</v>
+        <v>1298.562672578191</v>
       </c>
       <c r="D25">
-        <v>2.504431414036933</v>
+        <v>2.8023713806769912</v>
       </c>
       <c r="I25" s="2">
         <v>120</v>
@@ -7752,13 +7752,13 @@
     </row>
     <row r="26" spans="1:26">
       <c r="B26">
-        <v>1.682703443014369</v>
+        <v>1.723429036829113</v>
       </c>
       <c r="C26">
-        <v>1351.0144188288821</v>
+        <v>1455.412975681357</v>
       </c>
       <c r="D26">
-        <v>2.5532292990188838</v>
+        <v>2.9057147257959408</v>
       </c>
       <c r="I26" s="2">
         <v>132</v>
@@ -7781,13 +7781,13 @@
     </row>
     <row r="27" spans="1:26">
       <c r="B27">
-        <v>1.810230137003267</v>
+        <v>1.8213406434407731</v>
       </c>
       <c r="C27">
-        <v>1634.7544449035299</v>
+        <v>1687.5508100922359</v>
       </c>
       <c r="D27">
-        <v>2.5695986029495712</v>
+        <v>2.9669640776572961</v>
       </c>
       <c r="I27" s="2">
         <v>144</v>
@@ -7837,313 +7837,313 @@
     <row r="31" spans="1:26">
       <c r="S31">
         <f t="shared" ref="S31:S41" si="1">ABS((J3-B3)/J3)</f>
-        <v>0.37326944023635089</v>
+        <v>0.3974115155942643</v>
       </c>
       <c r="T31">
         <f t="shared" ref="T31:T38" si="2">ABS((K3-C3)/K3)</f>
-        <v>0.37221318007868681</v>
+        <v>0.54235714345098973</v>
       </c>
       <c r="U31">
         <f t="shared" ref="U31:U42" si="3">ABS((L3-D3)/L3)</f>
-        <v>0.28970780862132578</v>
+        <v>0.26041821084479699</v>
       </c>
       <c r="X31">
         <f t="shared" ref="X31:X42" si="4">ABS((J16-B16)/J16)</f>
-        <v>0.25256004392973225</v>
+        <v>0.31792103223491319</v>
       </c>
       <c r="Y31">
         <f t="shared" si="0"/>
-        <v>1.5267322185174497E-2</v>
+        <v>4.1916571714291043E-2</v>
       </c>
       <c r="Z31">
         <f t="shared" si="0"/>
-        <v>0.17714727314810372</v>
+        <v>0.11933473144480181</v>
       </c>
     </row>
     <row r="32" spans="1:26">
       <c r="S32">
         <f t="shared" si="1"/>
-        <v>9.6185373332172572E-2</v>
+        <v>0.11521801375171338</v>
       </c>
       <c r="T32">
         <f t="shared" si="2"/>
-        <v>5.1009181067500117E-2</v>
+        <v>0.16695004415018475</v>
       </c>
       <c r="U32">
         <f t="shared" si="3"/>
-        <v>8.3364581980073627E-2</v>
+        <v>5.6019177840134306E-2</v>
       </c>
       <c r="X32">
         <f t="shared" si="4"/>
-        <v>0.29300213010628057</v>
+        <v>0.37398546936240395</v>
       </c>
       <c r="Y32">
         <f t="shared" si="0"/>
-        <v>7.6394669789492067E-2</v>
+        <v>0.11364538046605459</v>
       </c>
       <c r="Z32">
         <f t="shared" si="0"/>
-        <v>0.30158644300670129</v>
+        <v>0.26892164620028081</v>
       </c>
     </row>
     <row r="33" spans="18:26">
       <c r="S33">
         <f t="shared" si="1"/>
-        <v>2.15038673090104E-2</v>
+        <v>3.8084625968184446E-2</v>
       </c>
       <c r="T33">
         <f t="shared" si="2"/>
-        <v>0.35359534720181768</v>
+        <v>0.2651994040582063</v>
       </c>
       <c r="U33">
         <f t="shared" si="3"/>
-        <v>1.5018819705199088E-2</v>
+        <v>3.1277453017144042E-3</v>
       </c>
       <c r="X33">
         <f t="shared" si="4"/>
-        <v>0.1296978545487896</v>
+        <v>0.20436416647518035</v>
       </c>
       <c r="Y33">
         <f t="shared" si="0"/>
-        <v>0.18093952689395429</v>
+        <v>0.24541823121604364</v>
       </c>
       <c r="Z33">
         <f t="shared" si="0"/>
-        <v>0.1553221191027756</v>
+        <v>0.14746448099704995</v>
       </c>
     </row>
     <row r="34" spans="18:26">
       <c r="S34">
         <f t="shared" si="1"/>
-        <v>4.1889335474053165E-2</v>
+        <v>1.7970634724589107E-2</v>
       </c>
       <c r="T34">
         <f t="shared" si="2"/>
-        <v>0.61502881864621484</v>
+        <v>0.94990694915560947</v>
       </c>
       <c r="U34">
         <f t="shared" si="3"/>
-        <v>5.7624782216618804E-3</v>
+        <v>8.6530354206647737E-3</v>
       </c>
       <c r="X34">
         <f t="shared" si="4"/>
-        <v>2.2557420209248415E-2</v>
+        <v>9.0057553814408234E-2</v>
       </c>
       <c r="Y34">
         <f t="shared" si="0"/>
-        <v>0.22775892852123494</v>
+        <v>0.40735536729622723</v>
       </c>
       <c r="Z34">
         <f t="shared" si="0"/>
-        <v>0.22398303416992402</v>
+        <v>0.23251446060022091</v>
       </c>
     </row>
     <row r="35" spans="18:26">
       <c r="S35">
         <f t="shared" si="1"/>
-        <v>4.7914232584731542E-2</v>
+        <v>1.0948691879361514E-2</v>
       </c>
       <c r="T35">
         <f t="shared" si="2"/>
-        <v>2.3743119453804105</v>
+        <v>1.5852737809200004</v>
       </c>
       <c r="U35">
         <f t="shared" si="3"/>
-        <v>3.723349856211982E-2</v>
+        <v>3.006510460168697E-2</v>
       </c>
       <c r="X35">
         <f t="shared" si="4"/>
-        <v>3.0725881686444602E-3</v>
+        <v>7.0859813928256049E-2</v>
       </c>
       <c r="Y35">
         <f t="shared" si="0"/>
-        <v>4.4482377846326117E-2</v>
+        <v>0.33490172759433251</v>
       </c>
       <c r="Z35">
         <f t="shared" si="0"/>
-        <v>0.12433570536924274</v>
+        <v>0.1365036317224802</v>
       </c>
     </row>
     <row r="36" spans="18:26">
       <c r="S36">
         <f t="shared" si="1"/>
-        <v>5.7283084121330909E-2</v>
+        <v>1.3896646156433178E-2</v>
       </c>
       <c r="T36">
         <f t="shared" si="2"/>
-        <v>0.18572569642383174</v>
+        <v>0.2175333349907505</v>
       </c>
       <c r="U36">
         <f t="shared" si="3"/>
-        <v>5.5616374262733012E-2</v>
+        <v>5.0673502765307611E-2</v>
       </c>
       <c r="X36">
         <f t="shared" si="4"/>
-        <v>8.3824297011805236E-3</v>
+        <v>5.4926949423037441E-2</v>
       </c>
       <c r="Y36">
         <f t="shared" si="0"/>
-        <v>5.3460143371064549E-2</v>
+        <v>0.31326514051078119</v>
       </c>
       <c r="Z36">
         <f t="shared" si="0"/>
-        <v>7.9485330084564362E-2</v>
+        <v>0.10377023779316463</v>
       </c>
     </row>
     <row r="37" spans="18:26">
       <c r="S37">
         <f t="shared" si="1"/>
-        <v>5.1156853617682567E-2</v>
+        <v>2.3076324645747531E-2</v>
       </c>
       <c r="T37">
         <f t="shared" si="2"/>
-        <v>0.1894858753507129</v>
+        <v>0.19397115597895759</v>
       </c>
       <c r="U37">
         <f t="shared" si="3"/>
-        <v>9.9107655777235737E-2</v>
+        <v>9.4352337128133013E-2</v>
       </c>
       <c r="X37">
         <f t="shared" si="4"/>
-        <v>1.3024166040530879E-2</v>
+        <v>7.398188402072374E-2</v>
       </c>
       <c r="Y37">
         <f t="shared" si="0"/>
-        <v>0.18619058003303812</v>
+        <v>0.24740405225684184</v>
       </c>
       <c r="Z37">
         <f t="shared" si="0"/>
-        <v>0.11892328193777325</v>
+        <v>0.16913647389265099</v>
       </c>
     </row>
     <row r="38" spans="18:26">
       <c r="S38">
         <f t="shared" si="1"/>
-        <v>5.5327306797611532E-2</v>
+        <v>4.12679343193295E-2</v>
       </c>
       <c r="T38">
         <f t="shared" si="2"/>
-        <v>2.5626665635750723E-2</v>
+        <v>4.6360427875713345E-2</v>
       </c>
       <c r="U38">
         <f t="shared" si="3"/>
-        <v>0.10596003562238154</v>
+        <v>8.1574657180102497E-2</v>
       </c>
       <c r="X38">
         <f t="shared" si="4"/>
-        <v>3.415542130508236E-2</v>
+        <v>9.3309470842979303E-2</v>
       </c>
       <c r="Y38">
         <f t="shared" si="0"/>
-        <v>0.23471729388361032</v>
+        <v>0.16313474368583711</v>
       </c>
       <c r="Z38">
         <f t="shared" si="0"/>
-        <v>0.12197316090101422</v>
+        <v>0.20114435259017138</v>
       </c>
     </row>
     <row r="39" spans="18:26">
       <c r="S39">
         <f t="shared" si="1"/>
-        <v>6.2377321027630162E-2</v>
+        <v>5.8529913426996857E-2</v>
       </c>
       <c r="T39">
         <f>ABS((K11-C11)/K11)</f>
-        <v>5.4364992443042034E-2</v>
+        <v>7.8940606234591204E-2</v>
       </c>
       <c r="U39">
         <f t="shared" si="3"/>
-        <v>8.9081954611026748E-2</v>
+        <v>4.7965845908390412E-2</v>
       </c>
       <c r="X39">
         <f t="shared" si="4"/>
-        <v>7.7674483736422342E-2</v>
+        <v>0.13261861814055653</v>
       </c>
       <c r="Y39">
         <f t="shared" si="0"/>
-        <v>0.30179930662423687</v>
+        <v>0.18770593819572542</v>
       </c>
       <c r="Z39">
         <f t="shared" si="0"/>
-        <v>9.4637439345704524E-2</v>
+        <v>0.19931734779714486</v>
       </c>
     </row>
     <row r="40" spans="18:26">
       <c r="S40">
         <f t="shared" si="1"/>
-        <v>6.2301288649108812E-2</v>
+        <v>6.7883338148612832E-2</v>
       </c>
       <c r="T40">
         <f t="shared" ref="T40:T42" si="5">ABS((K12-C12)/K12)</f>
-        <v>4.4839292390140818E-2</v>
+        <v>6.3903494421725951E-2</v>
       </c>
       <c r="U40">
         <f t="shared" si="3"/>
-        <v>0.10887077445006527</v>
+        <v>6.448224625873579E-2</v>
       </c>
       <c r="X40">
         <f t="shared" si="4"/>
-        <v>9.7471789738542175E-2</v>
+        <v>0.14171464519579743</v>
       </c>
       <c r="Y40">
         <f t="shared" si="0"/>
-        <v>0.33749516664794987</v>
+        <v>0.24414279826647786</v>
       </c>
       <c r="Z40">
         <f t="shared" si="0"/>
-        <v>4.9635965648337346E-2</v>
+        <v>0.17450602710686969</v>
       </c>
     </row>
     <row r="41" spans="18:26">
       <c r="S41">
         <f t="shared" si="1"/>
-        <v>5.0889223767633385E-2</v>
+        <v>6.7693244280708026E-2</v>
       </c>
       <c r="T41">
         <f t="shared" si="5"/>
-        <v>3.3545865922908903E-2</v>
+        <v>4.0708189414876313E-2</v>
       </c>
       <c r="U41">
         <f t="shared" si="3"/>
-        <v>0.11052315478211443</v>
+        <v>6.2845698616082524E-2</v>
       </c>
       <c r="X41">
         <f t="shared" si="4"/>
-        <v>0.13298104162023225</v>
+        <v>0.16040199086258611</v>
       </c>
       <c r="Y41">
         <f t="shared" si="0"/>
-        <v>0.3132297586270425</v>
+        <v>0.26016013842956642</v>
       </c>
       <c r="Z41">
         <f t="shared" si="0"/>
-        <v>3.705495492237354E-2</v>
+        <v>0.18022531510801812</v>
       </c>
     </row>
     <row r="42" spans="18:26">
       <c r="S42">
         <f>ABS((J14-B14)/J14)</f>
-        <v>3.5431718009943915E-2</v>
+        <v>6.3348317843851365E-2</v>
       </c>
       <c r="T42">
         <f t="shared" si="5"/>
-        <v>0.12475710524642952</v>
+        <v>0.11684425983131493</v>
       </c>
       <c r="U42">
         <f t="shared" si="3"/>
-        <v>0.11062468073915169</v>
+        <v>5.769473470850553E-2</v>
       </c>
       <c r="X42">
         <f t="shared" si="4"/>
-        <v>0.17440647268928691</v>
+        <v>0.18161453447565393</v>
       </c>
       <c r="Y42">
         <f t="shared" si="0"/>
-        <v>0.26172856211735995</v>
+        <v>0.23788519618288589</v>
       </c>
       <c r="Z42">
         <f t="shared" si="0"/>
-        <v>8.9736472836968242E-2</v>
+        <v>0.2582544858597523</v>
       </c>
     </row>
     <row r="43" spans="18:26">
@@ -8152,27 +8152,27 @@
       </c>
       <c r="S43">
         <f>( SUM(S31:S41)/12)*100</f>
-        <v>7.6674777243109657</v>
+        <v>7.0998406907995051</v>
       </c>
       <c r="T43">
         <f>( SUM(T31:T41)/12)*100</f>
-        <v>35.831223837841804</v>
+        <v>34.592537755430044</v>
       </c>
       <c r="U43">
         <f>( SUM(U31:U41)/12)*100</f>
-        <v>8.3353928049661405</v>
+        <v>6.3348130155479119</v>
       </c>
       <c r="X43">
         <f t="shared" ref="X43:Z43" si="6">( SUM(X31:X41)/12)*100</f>
-        <v>8.8714947425390491</v>
+        <v>14.284513285840353</v>
       </c>
       <c r="Y43">
         <f t="shared" si="6"/>
-        <v>16.431125620192702</v>
+        <v>21.325417413601492</v>
       </c>
       <c r="Z43">
         <f t="shared" si="6"/>
-        <v>12.367372563637623</v>
+        <v>16.106989210440446</v>
       </c>
     </row>
   </sheetData>
